--- a/docs/PT1/PT1_19.08.2024_output.xlsx
+++ b/docs/PT1/PT1_19.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2983 +505,3530 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731089549.9222977</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731089550.1655195</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731089549.9222977.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731089550.1655195.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>274.28</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>273.5</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.7799999999999727</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731089564.5430114</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731089565.7644088</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731089564.5430114.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731089565.7644088.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>270.7</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>270.75</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.05000000000001137</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731089569.6597483</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731089569.874829</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731089569.6597483.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731089569.874829.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>274.28</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>273.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.7799999999999727</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731089582.3624537</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731089583.491141</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731089582.3624537.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731089583.491141.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>270.7</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>270.75</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.05000000000001137</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731089587.1478927</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731089587.4201643</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731089587.1478927.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731089587.4201643.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>274.68</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>273.99</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.6899999999999977</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731089602.0154293</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731089603.2522507</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731089602.0154293.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731089603.2522507.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>271.04</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>271.1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731089616.5517132</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731089617.062885</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731089616.5517132.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731089617.062885.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>126.33</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>126.14</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731089621.9010532</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731089623.2533484</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731089621.9010532.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731089623.2533484.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>125.94</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>126</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731089623.927531</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731089624.573428</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731089623.927531.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731089624.573428.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>126.35</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>126.38</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731089627.0506165</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731089628.5569916</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731089627.0506165.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731089628.5569916.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6260</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6270.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-10.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731089641.7120895</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731089642.1902115</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731089641.7120895.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731089642.1902115.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6200</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6187.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>12.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731089642.5804038</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731089642.9746683</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731089642.5804038.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731089642.9746683.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6210</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6204.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>5.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731089647.3525164</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731089648.135485</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731089647.3525164.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731089648.135485.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>490.9</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>491.35</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.4500000000000455</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731089660.856491</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731089661.3699083</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731089660.856491.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731089661.3699083.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>488.2</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>487.4</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.8000000000000114</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731089661.56368</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731089661.9766433</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731089661.56368.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731089661.9766433.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>488.65</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>488</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.6499999999999773</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731089680.9990358</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731089681.491299</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731089680.9990358.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731089681.491299.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>213.8</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>213.22</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.5800000000000125</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731089681.8767915</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731089682.328609</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731089681.8767915.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731089682.328609.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>214.08</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>213.82</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.2600000000000193</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731089683.0836172</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731089683.664426</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731089683.0836172.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731089683.664426.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>214.86</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>214.68</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731089684.2722452</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731089684.434678</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731089684.2722452.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731089684.434678.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>214.96</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>214.75</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.210000000000008</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731089685.1931164</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731089685.845501</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731089685.1931164.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731089685.845501.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>215.1</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>215.13</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731089686.3865428</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731089687.7011611</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731089686.3865428.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731089687.7011611.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1014.8</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1021.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-7</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731089707.7271755</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731089708.4217782</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/CNY1731089707.7271755.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/CNY1731089708.4217782.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>12.157</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>12.156</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.0009999999999994458</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731089716.7645202</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731089716.9527423</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/CNY1731089716.7645202.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/CNY1731089716.9527423.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>12.176</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>12.182</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.006000000000000227</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731089717.8905294</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731089718.223082</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/CNY1731089717.8905294.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/CNY1731089718.223082.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>12.176</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>12.182</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.006000000000000227</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731089718.6407664</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731089719.4024584</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731089718.6407664.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731089719.4024584.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>12.167</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>12.168</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.0009999999999994458</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731089720.6315446</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731089721.835005</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731089720.6315446.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731089721.835005.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>12.163</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>12.147</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.01600000000000001</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731089729.4384432</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731089729.7502003</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731089729.4384432.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731089729.7502003.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>126.2</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>126.42</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731089731.3752875</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731089732.237644</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731089731.3752875.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731089732.237644.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>125.9</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>125.96</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.05999999999998806</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731089732.346214</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731089732.4571106</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731089732.346214.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731089732.4571106.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>125.8</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>126</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731089732.6597295</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731089733.46159</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731089732.6597295.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731089733.46159.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>125.76</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>125.72</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.04000000000000625</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731089741.9572983</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731089742.0855162</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731089741.9572983.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731089742.0855162.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>125.42</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>125</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.4200000000000017</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731089742.3170123</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731089743.4754336</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731089742.3170123.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731089743.4754336.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>125.44</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>125.52</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.07999999999999829</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731089744.6840508</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731089745.6675825</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731089744.6840508.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731089745.6675825.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>126.4</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>126.7</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.2999999999999972</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731089745.9782436</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731089747.5614345</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731089745.9782436.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731089747.5614345.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>161.64</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>162</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.3600000000000136</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731089764.525651</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731089764.8208997</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731089764.525651.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731089764.8208997.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>159.06</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>158.8</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731089765.434478</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731089765.9178793</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731089765.434478.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731089765.9178793.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>49.645</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>49.535</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.1100000000000065</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731089779.8415782</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731089780.2911506</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731089779.8415782.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731089780.2911506.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>48.995</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>48.885</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731089784.9764543</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731089785.3350387</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731089784.9764543.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731089785.3350387.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1378.8</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1374.2</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>4.599999999999909</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731089785.6264725</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731089785.8586757</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731089785.6264725.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731089785.8586757.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1381.6</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1377.8</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>3.799999999999955</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731089804.5822768</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731089806.084961</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089804.5822768.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089806.084961.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>57.89</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>58.1</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.2100000000000009</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731089819.3644655</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731089819.7446752</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089819.3644655.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089819.7446752.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>57.84</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>57.75</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731089820.281485</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731089820.7838604</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089820.281485.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089820.7838604.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>57.86</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>57.78</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731089820.9424164</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731089821.365544</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089820.9424164.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089821.365544.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>57.94</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>57.85</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.08999999999999631</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731089821.752811</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731089822.08252</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089821.752811.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731089822.08252.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>57.94</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>57.86</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731089824.7510412</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731089825.2177916</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089824.7510412.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089825.2177916.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>98.06</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>97.93000000000001</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731089825.4504282</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731089826.326355</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089825.4504282.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089826.326355.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>98.14</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>98.38</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.2399999999999949</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731089834.786982</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731089835.1619363</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089834.786982.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089835.1619363.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>98.11</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>97.95</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731089836.9944966</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731089837.94238</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089836.9944966.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089837.94238.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>97.95</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731089841.1249552</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731089841.9421256</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089841.1249552.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731089841.9421256.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>98.3</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.1000000000000085</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731089864.7106783</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731089865.7382197</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731089864.7106783.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731089865.7382197.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>151.68</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>152.1</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.4199999999999875</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731089877.2112577</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731089879.9277046</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731089877.2112577.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731089879.9277046.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>150.14</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>150.54</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.4000000000000057</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731089889.5564203</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731089891.0738196</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731089889.5564203.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731089891.0738196.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>0.303</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>0.302</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.001000000000000001</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731089907.3580048</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731089907.6019604</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731089907.3580048.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731089907.6019604.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>19.555</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>19.495</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.05999999999999872</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731089915.488334</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731089915.8750958</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731089915.488334.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731089915.8750958.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>19.336</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>19.272</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.06400000000000006</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731089925.9594102</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731089926.6862915</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731089925.9594102.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731089926.6862915.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>668.15</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>667.3</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.8500000000000227</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731089927.2489123</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731089927.6599195</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731089927.2489123.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731089927.6599195.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>670.15</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>669.15</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731089935.8653893</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731089936.3848307</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731089935.8653893.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731089936.3848307.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>668.9</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>668.45</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.4499999999999318</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731089937.653166</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731089937.7189627</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731089937.653166.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731089937.7189627.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>148.66</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>148.26</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731089937.916461</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731089938.2422554</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731089937.916461.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731089938.2422554.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>148.77</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>148.43</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731089946.3830528</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731089946.7673845</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731089946.3830528.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731089946.7673845.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>146.27</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>146</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.2700000000000102</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -3480,7 +4042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3504,6 +4066,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3517,6 +4094,15 @@
       <c r="C2" t="n">
         <v>7</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.0685714285714271</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3800000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3530,6 +4116,15 @@
       <c r="C3" t="n">
         <v>5</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.04000000000000057</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3543,6 +4138,15 @@
       <c r="C4" t="n">
         <v>5</v>
       </c>
+      <c r="D4" t="n">
+        <v>-0.0007999999999999119</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3556,6 +4160,15 @@
       <c r="C5" t="n">
         <v>5</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.2400000000000091</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3569,6 +4182,15 @@
       <c r="C6" t="n">
         <v>5</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.02599999999999909</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3582,6 +4204,15 @@
       <c r="C7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.3399999999999892</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4899999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3595,6 +4226,15 @@
       <c r="C8" t="n">
         <v>3</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.3366666666666731</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3608,6 +4248,15 @@
       <c r="C9" t="n">
         <v>3</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.3333333333333144</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3621,6 +4270,15 @@
       <c r="C10" t="n">
         <v>3</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.03333333333333144</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.07999999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3634,6 +4292,15 @@
       <c r="C11" t="n">
         <v>3</v>
       </c>
+      <c r="D11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3647,6 +4314,15 @@
       <c r="C12" t="n">
         <v>3</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.7666666666666515</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3660,6 +4336,15 @@
       <c r="C13" t="n">
         <v>2</v>
       </c>
+      <c r="D13" t="n">
+        <v>-0.4099999999999966</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.28</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3673,6 +4358,15 @@
       <c r="C14" t="n">
         <v>2</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.3649999999999807</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3686,6 +4380,15 @@
       <c r="C15" t="n">
         <v>2</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.06199999999999939</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3699,6 +4402,15 @@
       <c r="C16" t="n">
         <v>2</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.05000000000001137</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3712,6 +4424,15 @@
       <c r="C17" t="n">
         <v>2</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.110000000000003</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3725,6 +4446,15 @@
       <c r="C18" t="n">
         <v>2</v>
       </c>
+      <c r="D18" t="n">
+        <v>4.199999999999932</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3738,6 +4468,15 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3751,6 +4490,15 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.001000000000000001</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -3764,6 +4512,11 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
